--- a/example_files/SimpleSheet.xlsx
+++ b/example_files/SimpleSheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,10 +120,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DD\.MM\.YY\ H:MM"/>
-    <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="166" formatCode="dd\.mm\.yy\ h:mm"/>
+    <numFmt numFmtId="167" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -131,6 +132,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -190,7 +192,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -207,6 +209,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -220,20 +226,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="1" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -431,6 +436,9 @@
       </c>
       <c r="D10" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>44196</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>10</v>
@@ -448,20 +456,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="256" min="1" style="0" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="257" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -517,10 +524,10 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>43942.65625</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="4" t="n">
         <v>44534</v>
       </c>
       <c r="E4" s="1" t="n">
@@ -533,7 +540,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
